--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PartC\00_Stage_App\000_Recup_Github_lieuxdestagesApp_20220807\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PartC\00_Stage_App\000_Recup_Github_lieuxdestagesApp_20220807\A_conserver\Recup\Lieux_de_stage_Heroku-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CDC6EB-6449-4DF1-ACB3-D323CFEBEA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC17282-66E8-4921-B8B2-022F89A87C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="950">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -1397,9 +1397,6 @@
     <t>Recherche, Cultures cellulaires</t>
   </si>
   <si>
-    <t>M. MARTINY Laurent  - 03 26 91 31 68</t>
-  </si>
-  <si>
     <t>Recherche, Cancer</t>
   </si>
   <si>
@@ -2948,12 +2945,6 @@
   </si>
   <si>
     <t>https://fr.linkedin.com/company/lycee-libergier</t>
-  </si>
-  <si>
-    <t>dfialaire@yahoo.fr</t>
-  </si>
-  <si>
-    <t>jeanLouis@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -14031,10 +14022,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AZ11" sqref="AZ11"/>
+      <selection pane="bottomLeft" activeCell="AV115" sqref="AV115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14157,7 +14148,7 @@
         <v>33</v>
       </c>
       <c r="AT1" s="142" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AU1" s="142" t="s">
         <v>161</v>
@@ -14171,128 +14162,128 @@
       <c r="AZ1" s="148"/>
       <c r="BA1" s="148"/>
       <c r="BB1" s="149" t="s">
+        <v>523</v>
+      </c>
+      <c r="BC1" s="150" t="s">
+        <v>526</v>
+      </c>
+      <c r="BD1" s="149" t="s">
+        <v>521</v>
+      </c>
+      <c r="BE1" s="150" t="s">
         <v>524</v>
       </c>
-      <c r="BC1" s="150" t="s">
+      <c r="BF1" s="151" t="s">
+        <v>887</v>
+      </c>
+      <c r="BG1" s="151" t="s">
+        <v>888</v>
+      </c>
+      <c r="BH1" s="151" t="s">
+        <v>833</v>
+      </c>
+      <c r="BI1" s="151" t="s">
+        <v>834</v>
+      </c>
+      <c r="BJ1" s="151" t="s">
+        <v>831</v>
+      </c>
+      <c r="BK1" s="151" t="s">
+        <v>832</v>
+      </c>
+      <c r="BL1" s="151" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM1" s="151" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN1" s="151" t="s">
+        <v>549</v>
+      </c>
+      <c r="BO1" s="151" t="s">
+        <v>550</v>
+      </c>
+      <c r="BP1" s="151" t="s">
         <v>527</v>
       </c>
-      <c r="BD1" s="149" t="s">
-        <v>522</v>
-      </c>
-      <c r="BE1" s="150" t="s">
+      <c r="BQ1" s="151" t="s">
+        <v>528</v>
+      </c>
+      <c r="BR1" s="151" t="s">
+        <v>529</v>
+      </c>
+      <c r="BS1" s="151" t="s">
+        <v>530</v>
+      </c>
+      <c r="BT1" s="151" t="s">
+        <v>531</v>
+      </c>
+      <c r="BU1" s="151" t="s">
+        <v>532</v>
+      </c>
+      <c r="BV1" s="151" t="s">
+        <v>533</v>
+      </c>
+      <c r="BW1" s="151" t="s">
+        <v>534</v>
+      </c>
+      <c r="BX1" s="151" t="s">
+        <v>535</v>
+      </c>
+      <c r="BY1" s="151" t="s">
+        <v>536</v>
+      </c>
+      <c r="BZ1" s="152" t="s">
         <v>525</v>
       </c>
-      <c r="BF1" s="151" t="s">
-        <v>888</v>
-      </c>
-      <c r="BG1" s="151" t="s">
-        <v>889</v>
-      </c>
-      <c r="BH1" s="151" t="s">
-        <v>834</v>
-      </c>
-      <c r="BI1" s="151" t="s">
-        <v>835</v>
-      </c>
-      <c r="BJ1" s="151" t="s">
-        <v>832</v>
-      </c>
-      <c r="BK1" s="151" t="s">
-        <v>833</v>
-      </c>
-      <c r="BL1" s="151" t="s">
-        <v>552</v>
-      </c>
-      <c r="BM1" s="151" t="s">
-        <v>553</v>
-      </c>
-      <c r="BN1" s="151" t="s">
-        <v>550</v>
-      </c>
-      <c r="BO1" s="151" t="s">
-        <v>551</v>
-      </c>
-      <c r="BP1" s="151" t="s">
-        <v>528</v>
-      </c>
-      <c r="BQ1" s="151" t="s">
-        <v>529</v>
-      </c>
-      <c r="BR1" s="151" t="s">
-        <v>530</v>
-      </c>
-      <c r="BS1" s="151" t="s">
-        <v>531</v>
-      </c>
-      <c r="BT1" s="151" t="s">
-        <v>532</v>
-      </c>
-      <c r="BU1" s="151" t="s">
-        <v>533</v>
-      </c>
-      <c r="BV1" s="151" t="s">
-        <v>534</v>
-      </c>
-      <c r="BW1" s="151" t="s">
-        <v>535</v>
-      </c>
-      <c r="BX1" s="151" t="s">
-        <v>536</v>
-      </c>
-      <c r="BY1" s="151" t="s">
-        <v>537</v>
-      </c>
-      <c r="BZ1" s="152" t="s">
-        <v>526</v>
-      </c>
       <c r="CA1" s="152" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="CB1" s="152"/>
       <c r="CC1" s="152"/>
       <c r="CD1" s="153" t="s">
+        <v>537</v>
+      </c>
+      <c r="CE1" s="153" t="s">
         <v>538</v>
       </c>
-      <c r="CE1" s="153" t="s">
+      <c r="CF1" s="153" t="s">
         <v>539</v>
       </c>
-      <c r="CF1" s="153" t="s">
+      <c r="CG1" s="153" t="s">
         <v>540</v>
       </c>
-      <c r="CG1" s="153" t="s">
+      <c r="CH1" s="153" t="s">
         <v>541</v>
-      </c>
-      <c r="CH1" s="153" t="s">
-        <v>542</v>
       </c>
       <c r="CI1" s="153"/>
       <c r="CJ1" s="153"/>
       <c r="CK1" s="153" t="s">
+        <v>542</v>
+      </c>
+      <c r="CL1" s="153" t="s">
         <v>543</v>
       </c>
-      <c r="CL1" s="153" t="s">
+      <c r="CM1" s="153" t="s">
         <v>544</v>
       </c>
-      <c r="CM1" s="153" t="s">
+      <c r="CN1" s="153" t="s">
         <v>545</v>
       </c>
-      <c r="CN1" s="153" t="s">
+      <c r="CO1" s="153" t="s">
         <v>546</v>
-      </c>
-      <c r="CO1" s="153" t="s">
-        <v>547</v>
       </c>
       <c r="CP1" s="154"/>
     </row>
     <row r="2" spans="1:94" s="189" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="190" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="100" t="s">
         <v>590</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>592</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>591</v>
       </c>
       <c r="D2" s="178"/>
       <c r="E2" s="177"/>
@@ -14332,7 +14323,7 @@
       <c r="AM2" s="177"/>
       <c r="AN2" s="177"/>
       <c r="AO2" s="61" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AP2" s="61" t="s">
         <v>100</v>
@@ -14344,10 +14335,10 @@
         <v>326776161</v>
       </c>
       <c r="AS2" s="66" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AT2" s="137" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AU2" s="177"/>
       <c r="AV2" s="177"/>
@@ -14461,10 +14452,10 @@
         <v>326888110</v>
       </c>
       <c r="AS3" s="66" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AT3" s="137" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AU3" s="66" t="s">
         <v>245</v>
@@ -14604,10 +14595,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D4" s="97" t="str">
         <f t="shared" si="0"/>
@@ -14650,10 +14641,10 @@
       <c r="AM4" s="61"/>
       <c r="AN4" s="132"/>
       <c r="AO4" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="AP4" s="61" t="s">
         <v>892</v>
-      </c>
-      <c r="AP4" s="61" t="s">
-        <v>893</v>
       </c>
       <c r="AQ4" s="133">
         <v>15000</v>
@@ -14663,7 +14654,7 @@
       </c>
       <c r="AS4" s="66"/>
       <c r="AT4" s="137" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AU4" s="66"/>
       <c r="AV4" s="176"/>
@@ -14704,13 +14695,13 @@
     </row>
     <row r="5" spans="1:94" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D5" s="97" t="str">
         <f t="shared" si="0"/>
@@ -14753,10 +14744,10 @@
       <c r="AM5" s="61"/>
       <c r="AN5" s="132"/>
       <c r="AO5" s="61" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AP5" s="61" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AQ5" s="133">
         <v>54410</v>
@@ -14766,7 +14757,7 @@
       </c>
       <c r="AS5" s="66"/>
       <c r="AT5" s="137" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AU5" s="66"/>
       <c r="AV5" s="176"/>
@@ -14810,10 +14801,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D6" s="97" t="str">
         <f t="shared" si="0"/>
@@ -14856,20 +14847,20 @@
       <c r="AM6" s="61"/>
       <c r="AN6" s="132"/>
       <c r="AO6" s="61" t="s">
+        <v>895</v>
+      </c>
+      <c r="AP6" s="61" t="s">
         <v>896</v>
-      </c>
-      <c r="AP6" s="61" t="s">
-        <v>897</v>
       </c>
       <c r="AQ6" s="133">
         <v>52150</v>
       </c>
       <c r="AR6" s="134" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AS6" s="66"/>
       <c r="AT6" s="137" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AU6" s="66"/>
       <c r="AV6" s="176"/>
@@ -14916,7 +14907,7 @@
         <v>243</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D7" s="97" t="str">
         <f t="shared" si="0"/>
@@ -15009,7 +15000,7 @@
         <v>243</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D8" s="97" t="str">
         <f t="shared" si="0"/>
@@ -15052,20 +15043,20 @@
       <c r="AM8" s="61"/>
       <c r="AN8" s="132"/>
       <c r="AO8" s="61" t="s">
+        <v>882</v>
+      </c>
+      <c r="AP8" s="61" t="s">
         <v>883</v>
-      </c>
-      <c r="AP8" s="61" t="s">
-        <v>884</v>
       </c>
       <c r="AQ8" s="133">
         <v>80400</v>
       </c>
       <c r="AR8" s="134" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AS8" s="66"/>
       <c r="AT8" s="137" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AU8" s="66"/>
       <c r="AV8" s="176"/>
@@ -15112,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D9" s="97" t="str">
         <f t="shared" si="0"/>
@@ -15167,10 +15158,10 @@
         <v>37</v>
       </c>
       <c r="AS9" s="66" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AT9" s="66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AU9" s="66"/>
       <c r="AW9" s="61"/>
@@ -15306,7 +15297,7 @@
         <v>152</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D10" s="97" t="str">
         <f t="shared" si="0"/>
@@ -15361,23 +15352,16 @@
         <v>326888410</v>
       </c>
       <c r="AS10" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="AT10" s="173" t="s">
         <v>582</v>
-      </c>
-      <c r="AT10" s="173" t="s">
-        <v>583</v>
       </c>
       <c r="AU10" s="49"/>
       <c r="AW10" s="17"/>
-      <c r="AX10" s="23" t="s">
-        <v>951</v>
-      </c>
-      <c r="AY10" s="23" t="s">
-        <v>952</v>
-      </c>
-      <c r="AZ10" s="23" t="str">
-        <f>AX10&amp;" ; "&amp;AY10</f>
-        <v>dfialaire@yahoo.fr ; jeanLouis@yahoo.com</v>
-      </c>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
       <c r="BA10" s="25"/>
       <c r="BB10" s="18">
         <f>RANK(BZ10,$BZ$3:$BZ$137)+COUNTIF(BZ$3:BZ12,BZ10)-1</f>
@@ -15511,7 +15495,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D11" s="97" t="str">
         <f t="shared" si="0"/>
@@ -15554,7 +15538,7 @@
       <c r="AM11" s="17"/>
       <c r="AN11" s="17"/>
       <c r="AO11" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AP11" s="11" t="s">
         <v>100</v>
@@ -15563,11 +15547,11 @@
         <v>51726</v>
       </c>
       <c r="AR11" s="46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AS11" s="23"/>
       <c r="AT11" s="173" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AU11" s="49"/>
       <c r="AW11" s="17"/>
@@ -15670,10 +15654,10 @@
         <v>159</v>
       </c>
       <c r="AS12" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AT12" s="138" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AU12" s="65"/>
       <c r="AW12" s="130"/>
@@ -15860,10 +15844,10 @@
         <v>33326512020</v>
       </c>
       <c r="AS13" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AT13" s="139" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AU13" s="25" t="s">
         <v>123</v>
@@ -15997,7 +15981,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D14" s="97" t="str">
         <f t="shared" si="0"/>
@@ -16052,10 +16036,10 @@
         <v>58</v>
       </c>
       <c r="AS14" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AT14" s="139" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AU14" s="23"/>
       <c r="AW14" s="17"/>
@@ -16246,10 +16230,10 @@
         <v>250</v>
       </c>
       <c r="AS15" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AT15" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AU15" s="23"/>
       <c r="AW15" s="17"/>
@@ -16436,10 +16420,10 @@
         <v>325</v>
       </c>
       <c r="AS16" s="55" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AT16" s="55" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AU16" s="123"/>
       <c r="AV16" s="121"/>
@@ -16561,10 +16545,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="165" t="s">
+        <v>835</v>
+      </c>
+      <c r="C17" s="53" t="s">
         <v>836</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>837</v>
       </c>
       <c r="D17" s="97" t="str">
         <f t="shared" si="0"/>
@@ -16732,10 +16716,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="136" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D18" s="97" t="str">
         <f t="shared" si="0"/>
@@ -16778,10 +16762,10 @@
       <c r="AM18" s="53"/>
       <c r="AN18" s="119"/>
       <c r="AO18" s="53" t="s">
+        <v>592</v>
+      </c>
+      <c r="AP18" s="53" t="s">
         <v>593</v>
-      </c>
-      <c r="AP18" s="53" t="s">
-        <v>594</v>
       </c>
       <c r="AQ18" s="125">
         <v>50890</v>
@@ -16790,10 +16774,10 @@
         <v>33233066500</v>
       </c>
       <c r="AS18" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT18" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AU18" s="53"/>
       <c r="AW18" s="119"/>
@@ -16917,7 +16901,7 @@
         <v>264</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D19" s="97" t="str">
         <f t="shared" si="0"/>
@@ -16972,10 +16956,10 @@
         <v>267</v>
       </c>
       <c r="AS19" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT19" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU19" s="23" t="s">
         <v>268</v>
@@ -17102,10 +17086,10 @@
         <v>208</v>
       </c>
       <c r="B20" s="136" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D20" s="97" t="str">
         <f t="shared" si="0"/>
@@ -17148,22 +17132,22 @@
       <c r="AM20" s="53"/>
       <c r="AN20" s="119"/>
       <c r="AO20" s="53" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AP20" s="53" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AQ20" s="125">
         <v>50200</v>
       </c>
       <c r="AR20" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="AS20" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="AT20" s="22" t="s">
         <v>829</v>
-      </c>
-      <c r="AS20" s="22" t="s">
-        <v>831</v>
-      </c>
-      <c r="AT20" s="22" t="s">
-        <v>830</v>
       </c>
       <c r="AU20" s="53"/>
       <c r="AV20" s="163"/>
@@ -17286,7 +17270,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D21" s="97" t="str">
         <f t="shared" si="0"/>
@@ -17341,10 +17325,10 @@
         <v>52</v>
       </c>
       <c r="AS21" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="AT21" s="23" t="s">
         <v>606</v>
-      </c>
-      <c r="AT21" s="23" t="s">
-        <v>607</v>
       </c>
       <c r="AU21" s="23"/>
       <c r="AW21" s="17"/>
@@ -17470,7 +17454,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D22" s="97" t="str">
         <f t="shared" si="0"/>
@@ -17525,10 +17509,10 @@
         <v>50</v>
       </c>
       <c r="AS22" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AT22" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AU22" s="23" t="s">
         <v>272</v>
@@ -17711,10 +17695,10 @@
         <v>270</v>
       </c>
       <c r="AS23" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AT23" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU23" s="23" t="s">
         <v>271</v>
@@ -17840,7 +17824,7 @@
         <v>241</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D24" s="97" t="str">
         <f t="shared" si="0"/>
@@ -17883,7 +17867,7 @@
       <c r="AM24" s="17"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AP24" s="17" t="s">
         <v>100</v>
@@ -17893,10 +17877,10 @@
       </c>
       <c r="AR24" s="15"/>
       <c r="AS24" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AT24" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AU24" s="23" t="s">
         <v>226</v>
@@ -18020,7 +18004,7 @@
         <v>225</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D25" s="97" t="str">
         <f t="shared" si="0"/>
@@ -18063,7 +18047,7 @@
       <c r="AM25" s="17"/>
       <c r="AN25" s="15"/>
       <c r="AO25" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AP25" s="17" t="s">
         <v>100</v>
@@ -18073,10 +18057,10 @@
       </c>
       <c r="AR25" s="15"/>
       <c r="AS25" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AT25" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AU25" s="23" t="s">
         <v>226</v>
@@ -18201,10 +18185,10 @@
         <v>208</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D26" s="97" t="str">
         <f t="shared" si="0"/>
@@ -18247,7 +18231,7 @@
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AP26" s="17" t="s">
         <v>100</v>
@@ -18257,13 +18241,13 @@
       </c>
       <c r="AR26" s="28"/>
       <c r="AS26" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AT26" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AU26" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AW26" s="17"/>
       <c r="AX26" s="24"/>
@@ -18385,10 +18369,10 @@
         <v>208</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>909</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>910</v>
       </c>
       <c r="D27" s="97" t="str">
         <f t="shared" si="0"/>
@@ -18431,7 +18415,7 @@
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
       <c r="AO27" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AP27" s="17" t="s">
         <v>100</v>
@@ -18440,11 +18424,11 @@
         <v>51100</v>
       </c>
       <c r="AR27" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AS27" s="22"/>
       <c r="AT27" s="22" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AU27" s="23"/>
       <c r="AW27" s="17"/>
@@ -18487,10 +18471,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D28" s="97" t="str">
         <f t="shared" si="0"/>
@@ -18533,7 +18517,7 @@
       <c r="AM28" s="17"/>
       <c r="AN28" s="15"/>
       <c r="AO28" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AP28" s="17" t="s">
         <v>100</v>
@@ -18542,16 +18526,16 @@
         <v>51680</v>
       </c>
       <c r="AR28" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="AS28" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="AT28" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="AU28" s="23" t="s">
         <v>579</v>
-      </c>
-      <c r="AS28" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="AT28" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="AU28" s="23" t="s">
-        <v>580</v>
       </c>
       <c r="AW28" s="26"/>
       <c r="AX28" s="24"/>
@@ -18729,10 +18713,10 @@
         <v>262</v>
       </c>
       <c r="AS29" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AT29" s="51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AU29" s="23" t="s">
         <v>263</v>
@@ -18913,10 +18897,10 @@
         <v>258</v>
       </c>
       <c r="AS30" s="51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AT30" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU30" s="25"/>
       <c r="AW30" s="17"/>
@@ -19096,7 +19080,7 @@
       </c>
       <c r="AS31" s="55"/>
       <c r="AT31" s="55" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AU31" s="23" t="s">
         <v>346</v>
@@ -19218,7 +19202,7 @@
         <v>303</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D32" s="97" t="str">
         <f t="shared" si="0"/>
@@ -19273,10 +19257,10 @@
         <v>306</v>
       </c>
       <c r="AS32" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AT32" s="55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AU32" s="23" t="s">
         <v>307</v>
@@ -19453,10 +19437,10 @@
         <v>235</v>
       </c>
       <c r="AS33" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AT33" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AU33" s="23" t="s">
         <v>236</v>
@@ -19635,10 +19619,10 @@
         <v>182</v>
       </c>
       <c r="AS34" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AT34" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AU34" s="23" t="s">
         <v>183</v>
@@ -19817,10 +19801,10 @@
         <v>143</v>
       </c>
       <c r="AS35" s="23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AT35" s="23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AU35" s="23"/>
       <c r="AW35" s="17"/>
@@ -19940,7 +19924,7 @@
         <v>254</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D36" s="97" t="str">
         <f t="shared" si="0"/>
@@ -19996,7 +19980,7 @@
       </c>
       <c r="AS36" s="55"/>
       <c r="AT36" s="55" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AU36" s="23" t="s">
         <v>334</v>
@@ -20115,10 +20099,10 @@
         <v>193</v>
       </c>
       <c r="B37" s="122" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D37" s="97" t="str">
         <f t="shared" si="0"/>
@@ -20161,10 +20145,10 @@
       <c r="AM37" s="53"/>
       <c r="AN37" s="119"/>
       <c r="AO37" s="53" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP37" s="53" t="s">
         <v>575</v>
-      </c>
-      <c r="AP37" s="53" t="s">
-        <v>576</v>
       </c>
       <c r="AQ37" s="125">
         <v>45730</v>
@@ -20174,7 +20158,7 @@
       </c>
       <c r="AS37" s="119"/>
       <c r="AT37" s="55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AU37" s="53"/>
       <c r="AW37" s="119"/>
@@ -20294,7 +20278,7 @@
         <v>299</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D38" s="97" t="str">
         <f t="shared" si="0"/>
@@ -20337,10 +20321,10 @@
       <c r="AM38" s="53"/>
       <c r="AN38" s="53"/>
       <c r="AO38" s="53" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AP38" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ38" s="125">
         <v>8000</v>
@@ -20350,7 +20334,7 @@
       </c>
       <c r="AS38" s="53"/>
       <c r="AT38" s="55" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AU38" s="53"/>
       <c r="AW38" s="53"/>
@@ -20525,10 +20509,10 @@
         <v>284</v>
       </c>
       <c r="AS39" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AT39" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AU39" s="23"/>
       <c r="AW39" s="17"/>
@@ -20703,10 +20687,10 @@
         <v>21</v>
       </c>
       <c r="AS40" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT40" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AU40" s="23"/>
       <c r="AW40" s="11"/>
@@ -20826,7 +20810,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D41" s="97" t="str">
         <f t="shared" si="0"/>
@@ -20869,7 +20853,7 @@
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
       <c r="AO41" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AP41" s="11" t="s">
         <v>27</v>
@@ -20881,10 +20865,10 @@
         <v>48</v>
       </c>
       <c r="AS41" s="52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AT41" s="52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AU41" s="23" t="s">
         <v>273</v>
@@ -21063,10 +21047,10 @@
         <v>239</v>
       </c>
       <c r="AS42" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AT42" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AU42" s="23" t="s">
         <v>240</v>
@@ -21188,7 +21172,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D43" s="97" t="str">
         <f t="shared" si="0"/>
@@ -21243,10 +21227,10 @@
         <v>32</v>
       </c>
       <c r="AS43" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AT43" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AU43" s="23"/>
       <c r="AW43" s="17"/>
@@ -21368,7 +21352,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D44" s="97" t="str">
         <f t="shared" si="0"/>
@@ -21411,25 +21395,25 @@
       <c r="AM44" s="68"/>
       <c r="AN44" s="83"/>
       <c r="AO44" s="103" t="s">
+        <v>554</v>
+      </c>
+      <c r="AP44" s="68" t="s">
         <v>555</v>
-      </c>
-      <c r="AP44" s="68" t="s">
-        <v>556</v>
       </c>
       <c r="AQ44" s="85">
         <v>10700</v>
       </c>
       <c r="AR44" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="AS44" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="AT44" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="AU44" s="68" t="s">
         <v>557</v>
-      </c>
-      <c r="AS44" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="AT44" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="AU44" s="68" t="s">
-        <v>558</v>
       </c>
       <c r="AW44" s="83"/>
       <c r="AX44" s="90"/>
@@ -21547,10 +21531,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="98" t="s">
+        <v>558</v>
+      </c>
+      <c r="C45" s="68" t="s">
         <v>559</v>
-      </c>
-      <c r="C45" s="68" t="s">
-        <v>560</v>
       </c>
       <c r="D45" s="97" t="str">
         <f t="shared" si="0"/>
@@ -21593,25 +21577,25 @@
       <c r="AM45" s="68"/>
       <c r="AN45" s="83"/>
       <c r="AO45" s="103" t="s">
+        <v>560</v>
+      </c>
+      <c r="AP45" s="68" t="s">
         <v>561</v>
-      </c>
-      <c r="AP45" s="68" t="s">
-        <v>562</v>
       </c>
       <c r="AQ45" s="85">
         <v>45550</v>
       </c>
       <c r="AR45" s="68" t="s">
+        <v>562</v>
+      </c>
+      <c r="AS45" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="AT45" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="AU45" s="68" t="s">
         <v>563</v>
-      </c>
-      <c r="AS45" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="AT45" s="23" t="s">
-        <v>651</v>
-      </c>
-      <c r="AU45" s="68" t="s">
-        <v>564</v>
       </c>
       <c r="AW45" s="83"/>
       <c r="AX45" s="90"/>
@@ -21787,10 +21771,10 @@
         <v>219</v>
       </c>
       <c r="AS46" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AT46" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AU46" s="23" t="s">
         <v>220</v>
@@ -21967,10 +21951,10 @@
         <v>179</v>
       </c>
       <c r="AS47" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AT47" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AU47" s="23" t="s">
         <v>178</v>
@@ -22086,13 +22070,13 @@
     </row>
     <row r="48" spans="1:94" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>433</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D48" s="97" t="str">
         <f t="shared" si="0"/>
@@ -22135,7 +22119,7 @@
       <c r="AM48" s="17"/>
       <c r="AN48" s="15"/>
       <c r="AO48" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AP48" s="17" t="s">
         <v>205</v>
@@ -22145,10 +22129,10 @@
       </c>
       <c r="AR48" s="15"/>
       <c r="AS48" s="23" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AT48" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AU48" s="17"/>
       <c r="AW48" s="26"/>
@@ -22268,7 +22252,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D49" s="97" t="str">
         <f t="shared" si="0"/>
@@ -22323,10 +22307,10 @@
         <v>45</v>
       </c>
       <c r="AS49" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AT49" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AU49" s="23" t="s">
         <v>252</v>
@@ -22503,10 +22487,10 @@
         <v>12</v>
       </c>
       <c r="AS50" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AT50" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AU50" s="23" t="s">
         <v>224</v>
@@ -22624,10 +22608,10 @@
     </row>
     <row r="51" spans="1:94" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>206</v>
@@ -22685,10 +22669,10 @@
         <v>207</v>
       </c>
       <c r="AS51" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AT51" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU51" s="23" t="s">
         <v>211</v>
@@ -22867,7 +22851,7 @@
       </c>
       <c r="AS52" s="22"/>
       <c r="AT52" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU52" s="23" t="s">
         <v>170</v>
@@ -23045,10 +23029,10 @@
         <v>231</v>
       </c>
       <c r="AS53" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AT53" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AU53" s="23" t="s">
         <v>232</v>
@@ -23171,7 +23155,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D54" s="97" t="str">
         <f t="shared" si="0"/>
@@ -23226,10 +23210,10 @@
         <v>38</v>
       </c>
       <c r="AS54" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AT54" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AU54" s="23"/>
       <c r="AW54" s="17"/>
@@ -23349,7 +23333,7 @@
         <v>189</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D55" s="97" t="str">
         <f t="shared" si="0"/>
@@ -23404,10 +23388,10 @@
         <v>188</v>
       </c>
       <c r="AS55" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AT55" s="57" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AU55" s="17"/>
       <c r="AW55" s="26"/>
@@ -23527,7 +23511,7 @@
         <v>39</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D56" s="97" t="str">
         <f t="shared" si="0"/>
@@ -23582,10 +23566,10 @@
         <v>42</v>
       </c>
       <c r="AS56" s="23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AT56" s="23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AU56" s="23"/>
       <c r="AW56" s="17"/>
@@ -23703,7 +23687,7 @@
         <v>39</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D57" s="97" t="str">
         <f t="shared" si="0"/>
@@ -23758,10 +23742,10 @@
         <v>40</v>
       </c>
       <c r="AS57" s="23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AT57" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AU57" s="23"/>
       <c r="AW57" s="17"/>
@@ -23879,7 +23863,7 @@
         <v>59</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D58" s="97" t="str">
         <f t="shared" si="0"/>
@@ -23935,7 +23919,7 @@
       </c>
       <c r="AS58" s="23"/>
       <c r="AT58" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AU58" s="23" t="s">
         <v>186</v>
@@ -24055,7 +24039,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D59" s="97" t="str">
         <f t="shared" si="0"/>
@@ -24110,10 +24094,10 @@
         <v>66</v>
       </c>
       <c r="AS59" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AT59" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AU59" s="23"/>
       <c r="AW59" s="17"/>
@@ -24231,7 +24215,7 @@
         <v>43</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D60" s="97" t="str">
         <f t="shared" si="0"/>
@@ -24286,10 +24270,10 @@
         <v>44</v>
       </c>
       <c r="AS60" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AT60" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AU60" s="107"/>
       <c r="AW60" s="17"/>
@@ -24462,10 +24446,10 @@
         <v>166</v>
       </c>
       <c r="AS61" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AT61" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AU61" s="107" t="s">
         <v>165</v>
@@ -24585,7 +24569,7 @@
         <v>280</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D62" s="97" t="str">
         <f t="shared" si="0"/>
@@ -24640,10 +24624,10 @@
         <v>71</v>
       </c>
       <c r="AS62" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AT62" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AW62" s="17"/>
       <c r="AX62" s="17"/>
@@ -24760,7 +24744,7 @@
         <v>53</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D63" s="97" t="str">
         <f t="shared" si="0"/>
@@ -24815,10 +24799,10 @@
         <v>54</v>
       </c>
       <c r="AS63" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AT63" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
@@ -24935,7 +24919,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D64" s="97" t="str">
         <f t="shared" si="0"/>
@@ -24990,10 +24974,10 @@
         <v>56</v>
       </c>
       <c r="AS64" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AT64" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
@@ -25165,10 +25149,10 @@
         <v>127</v>
       </c>
       <c r="AS65" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AT65" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AW65" s="17"/>
       <c r="AX65" s="17"/>
@@ -25340,10 +25324,10 @@
         <v>8</v>
       </c>
       <c r="AS66" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AT66" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AU66" s="7"/>
       <c r="AV66" s="7"/>
@@ -25515,10 +25499,10 @@
       </c>
       <c r="AR67" s="28"/>
       <c r="AS67" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AT67" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AU67" s="7"/>
       <c r="AV67" s="7"/>
@@ -25692,10 +25676,10 @@
         <v>140</v>
       </c>
       <c r="AS68" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AT68" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
@@ -25869,10 +25853,10 @@
         <v>46</v>
       </c>
       <c r="AS69" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AT69" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
@@ -26341,7 +26325,7 @@
         <v>47</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D72" s="97" t="str">
         <f t="shared" si="37"/>
@@ -26396,10 +26380,10 @@
         <v>61</v>
       </c>
       <c r="AS72" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AT72" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AW72" s="17"/>
       <c r="AX72" s="17"/>
@@ -26513,10 +26497,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>916</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>917</v>
       </c>
       <c r="D73" s="97" t="str">
         <f t="shared" si="37"/>
@@ -26559,7 +26543,7 @@
       <c r="AM73" s="17"/>
       <c r="AN73" s="17"/>
       <c r="AO73" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AP73" s="11" t="s">
         <v>108</v>
@@ -26568,13 +26552,13 @@
         <v>51300</v>
       </c>
       <c r="AR73" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="AS73" s="23" t="s">
         <v>919</v>
       </c>
-      <c r="AS73" s="23" t="s">
+      <c r="AT73" s="23" t="s">
         <v>920</v>
-      </c>
-      <c r="AT73" s="23" t="s">
-        <v>921</v>
       </c>
       <c r="AW73" s="17"/>
       <c r="AX73" s="17"/>
@@ -26633,7 +26617,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D74" s="97" t="str">
         <f t="shared" si="37"/>
@@ -26689,7 +26673,7 @@
       </c>
       <c r="AS74" s="23"/>
       <c r="AT74" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AW74" s="17"/>
       <c r="AX74" s="17"/>
@@ -26806,7 +26790,7 @@
         <v>35</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D75" s="97" t="str">
         <f t="shared" si="37"/>
@@ -26861,10 +26845,10 @@
         <v>36</v>
       </c>
       <c r="AS75" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AT75" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
@@ -27036,10 +27020,10 @@
         <v>117</v>
       </c>
       <c r="AS76" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AT76" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AW76" s="17"/>
       <c r="AX76" s="17"/>
@@ -27156,7 +27140,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D77" s="97" t="str">
         <f t="shared" si="37"/>
@@ -27209,10 +27193,10 @@
       </c>
       <c r="AR77" s="28"/>
       <c r="AS77" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AT77" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
@@ -27329,7 +27313,7 @@
         <v>297</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D78" s="97" t="str">
         <f t="shared" si="37"/>
@@ -27384,10 +27368,10 @@
         <v>148</v>
       </c>
       <c r="AS78" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AT78" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AW78" s="17"/>
       <c r="AX78" s="17"/>
@@ -27559,10 +27543,10 @@
         <v>41</v>
       </c>
       <c r="AS79" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AT79" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AW79" s="17"/>
       <c r="AX79" s="17"/>
@@ -27679,7 +27663,7 @@
         <v>119</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D80" s="97" t="str">
         <f t="shared" si="37"/>
@@ -27734,10 +27718,10 @@
         <v>320816100</v>
       </c>
       <c r="AS80" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AT80" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AW80" s="17"/>
       <c r="AX80" s="17"/>
@@ -27854,7 +27838,7 @@
         <v>169</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D81" s="97" t="str">
         <f t="shared" si="37"/>
@@ -27909,10 +27893,10 @@
         <v>162</v>
       </c>
       <c r="AS81" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AT81" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AW81" s="17"/>
       <c r="AX81" s="24"/>
@@ -28084,10 +28068,10 @@
         <v>63</v>
       </c>
       <c r="AS82" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AT82" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AW82" s="17"/>
       <c r="AX82" s="17"/>
@@ -28259,10 +28243,10 @@
         <v>279</v>
       </c>
       <c r="AS83" s="23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AT83" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AW83" s="47"/>
       <c r="AX83" s="17"/>
@@ -28379,7 +28363,7 @@
         <v>69</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D84" s="97" t="str">
         <f t="shared" si="37"/>
@@ -28434,10 +28418,10 @@
         <v>70</v>
       </c>
       <c r="AS84" s="23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AT84" s="23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AW84" s="17"/>
       <c r="AX84" s="17"/>
@@ -28554,7 +28538,7 @@
         <v>39</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D85" s="97" t="str">
         <f t="shared" si="37"/>
@@ -28609,10 +28593,10 @@
         <v>2</v>
       </c>
       <c r="AS85" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AW85" s="17"/>
       <c r="AX85" s="17"/>
@@ -28784,10 +28768,10 @@
         <v>287</v>
       </c>
       <c r="AS86" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AT86" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AW86" s="17"/>
       <c r="AX86" s="17"/>
@@ -28959,10 +28943,10 @@
         <v>290</v>
       </c>
       <c r="AS87" s="55" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AT87" s="55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AU87" s="10"/>
       <c r="AV87" s="10"/>
@@ -29136,10 +29120,10 @@
         <v>292</v>
       </c>
       <c r="AS88" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AT88" s="55" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AU88" s="10"/>
       <c r="AV88" s="10"/>
@@ -29313,10 +29297,10 @@
         <v>296</v>
       </c>
       <c r="AS89" s="55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AT89" s="55" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AW89" s="17"/>
       <c r="AX89" s="17"/>
@@ -29488,10 +29472,10 @@
         <v>302</v>
       </c>
       <c r="AS90" s="55" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AT90" s="55" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AW90" s="17"/>
       <c r="AX90" s="17"/>
@@ -29661,10 +29645,10 @@
       </c>
       <c r="AR91" s="28"/>
       <c r="AS91" s="55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AT91" s="55" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AW91" s="17"/>
       <c r="AX91" s="17"/>
@@ -29781,7 +29765,7 @@
         <v>313</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D92" s="97" t="str">
         <f t="shared" si="37"/>
@@ -29837,7 +29821,7 @@
       </c>
       <c r="AS92" s="55"/>
       <c r="AT92" s="55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AU92" s="7"/>
       <c r="AV92" s="7"/>
@@ -30011,10 +29995,10 @@
         <v>320</v>
       </c>
       <c r="AS93" s="55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AT93" s="55" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AW93" s="17"/>
       <c r="AX93" s="17"/>
@@ -30186,10 +30170,10 @@
         <v>329</v>
       </c>
       <c r="AS94" s="55" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AT94" s="55" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AW94" s="17"/>
       <c r="AX94" s="17"/>
@@ -30306,7 +30290,7 @@
         <v>347</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D95" s="97" t="str">
         <f t="shared" si="37"/>
@@ -30361,10 +30345,10 @@
         <v>350</v>
       </c>
       <c r="AS95" s="55" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AT95" s="55" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AU95" s="26"/>
       <c r="AW95" s="26"/>
@@ -30482,7 +30466,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D96" s="97" t="str">
         <f t="shared" si="37"/>
@@ -30537,10 +30521,10 @@
         <v>355</v>
       </c>
       <c r="AS96" s="22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AT96" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AU96" s="23" t="s">
         <v>356</v>
@@ -30715,10 +30699,10 @@
         <v>359</v>
       </c>
       <c r="AS97" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AT97" s="22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AU97" s="23" t="s">
         <v>360</v>
@@ -30893,10 +30877,10 @@
         <v>192</v>
       </c>
       <c r="AS98" s="22" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AT98" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AU98" s="17"/>
       <c r="AW98" s="17"/>
@@ -31072,7 +31056,7 @@
       </c>
       <c r="AS99" s="22"/>
       <c r="AT99" s="22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AU99" s="23" t="s">
         <v>366</v>
@@ -31248,10 +31232,10 @@
         <v>370</v>
       </c>
       <c r="AS100" s="22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AT100" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AU100" s="23" t="s">
         <v>371</v>
@@ -31426,7 +31410,7 @@
       <c r="AR101" s="15"/>
       <c r="AS101" s="22"/>
       <c r="AT101" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AU101" s="23" t="s">
         <v>375</v>
@@ -31601,7 +31585,7 @@
       <c r="AR102" s="15"/>
       <c r="AS102" s="22"/>
       <c r="AT102" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AU102" s="23" t="s">
         <v>378</v>
@@ -31776,7 +31760,7 @@
       <c r="AR103" s="15"/>
       <c r="AS103" s="22"/>
       <c r="AT103" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AU103" s="17"/>
       <c r="AV103" s="30"/>
@@ -31950,10 +31934,10 @@
         <v>385</v>
       </c>
       <c r="AS104" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AT104" s="22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AU104" s="23" t="s">
         <v>384</v>
@@ -32129,10 +32113,10 @@
         <v>390</v>
       </c>
       <c r="AS105" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AT105" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AU105" s="23" t="s">
         <v>391</v>
@@ -32247,13 +32231,13 @@
     </row>
     <row r="106" spans="1:94" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>392</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D106" s="97" t="str">
         <f t="shared" si="37"/>
@@ -32308,10 +32292,10 @@
         <v>395</v>
       </c>
       <c r="AS106" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AT106" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AU106" s="23" t="s">
         <v>396</v>
@@ -32432,7 +32416,7 @@
         <v>398</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D107" s="97" t="str">
         <f t="shared" si="37"/>
@@ -32485,10 +32469,10 @@
       </c>
       <c r="AR107" s="15"/>
       <c r="AS107" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AT107" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AU107" s="23" t="s">
         <v>401</v>
@@ -32664,10 +32648,10 @@
         <v>405</v>
       </c>
       <c r="AS108" s="22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AT108" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AU108" s="23" t="s">
         <v>406</v>
@@ -32843,10 +32827,10 @@
         <v>410</v>
       </c>
       <c r="AS109" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AT109" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU109" s="23" t="s">
         <v>411</v>
@@ -32967,7 +32951,7 @@
         <v>408</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D110" s="97" t="str">
         <f t="shared" si="37"/>
@@ -33022,10 +33006,10 @@
         <v>415</v>
       </c>
       <c r="AS110" s="22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AT110" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AU110" s="23" t="s">
         <v>414</v>
@@ -33146,7 +33130,7 @@
         <v>416</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D111" s="97" t="str">
         <f t="shared" si="37"/>
@@ -33201,10 +33185,10 @@
         <v>201</v>
       </c>
       <c r="AS111" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AT111" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AU111" s="23" t="s">
         <v>418</v>
@@ -33374,10 +33358,10 @@
         <v>424</v>
       </c>
       <c r="AS112" s="22" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AT112" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AU112" s="23" t="s">
         <v>421</v>
@@ -33498,7 +33482,7 @@
         <v>431</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D113" s="97" t="str">
         <f t="shared" si="37"/>
@@ -33553,10 +33537,10 @@
         <v>202</v>
       </c>
       <c r="AS113" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AT113" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AU113" s="23" t="s">
         <v>427</v>
@@ -33723,7 +33707,7 @@
       <c r="AR114" s="28"/>
       <c r="AS114" s="22"/>
       <c r="AT114" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AU114" s="23" t="s">
         <v>430</v>
@@ -33838,10 +33822,10 @@
         <v>204</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D115" s="97" t="str">
         <f t="shared" si="37"/>
@@ -33884,7 +33868,7 @@
       <c r="AM115" s="17"/>
       <c r="AN115" s="15"/>
       <c r="AO115" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AP115" s="17" t="s">
         <v>100</v>
@@ -33895,14 +33879,12 @@
       <c r="AR115" s="15"/>
       <c r="AS115" s="22"/>
       <c r="AT115" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AU115" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="AV115" s="17" t="s">
-        <v>434</v>
-      </c>
+      <c r="AV115" s="17"/>
       <c r="AW115" s="17"/>
       <c r="AX115" s="17"/>
       <c r="AY115" s="17"/>
@@ -34015,10 +33997,10 @@
         <v>204</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="D116" s="97" t="str">
         <f t="shared" si="37"/>
@@ -34061,7 +34043,7 @@
       <c r="AM116" s="17"/>
       <c r="AN116" s="15"/>
       <c r="AO116" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AP116" s="17" t="s">
         <v>100</v>
@@ -34070,16 +34052,16 @@
         <v>51100</v>
       </c>
       <c r="AR116" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="AS116" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="AT116" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="AU116" s="23" t="s">
         <v>438</v>
-      </c>
-      <c r="AS116" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="AT116" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="AU116" s="23" t="s">
-        <v>439</v>
       </c>
       <c r="AV116" s="17"/>
       <c r="AW116" s="17"/>
@@ -34194,10 +34176,10 @@
         <v>208</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D117" s="97" t="str">
         <f t="shared" si="37"/>
@@ -34240,7 +34222,7 @@
       <c r="AM117" s="17"/>
       <c r="AN117" s="17"/>
       <c r="AO117" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP117" s="17" t="s">
         <v>100</v>
@@ -34251,7 +34233,7 @@
       <c r="AR117" s="15"/>
       <c r="AS117" s="22"/>
       <c r="AT117" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AU117" s="23" t="s">
         <v>432</v>
@@ -34369,10 +34351,10 @@
         <v>208</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D118" s="97" t="str">
         <f t="shared" si="37"/>
@@ -34415,23 +34397,23 @@
       <c r="AM118" s="17"/>
       <c r="AN118" s="17"/>
       <c r="AO118" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP118" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="AP118" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="AQ118" s="21">
         <v>68490</v>
       </c>
       <c r="AR118" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AS118" s="22"/>
       <c r="AT118" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AU118" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AV118" s="15"/>
       <c r="AW118" s="17"/>
@@ -34546,10 +34528,10 @@
         <v>208</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D119" s="97" t="str">
         <f t="shared" si="37"/>
@@ -34592,25 +34574,25 @@
       <c r="AM119" s="17"/>
       <c r="AN119" s="15"/>
       <c r="AO119" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="AP119" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="AP119" s="17" t="s">
-        <v>453</v>
       </c>
       <c r="AQ119" s="21">
         <v>51140</v>
       </c>
       <c r="AR119" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS119" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="AT119" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="AU119" s="23" t="s">
         <v>454</v>
-      </c>
-      <c r="AS119" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="AT119" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="AU119" s="23" t="s">
-        <v>455</v>
       </c>
       <c r="AV119" s="30"/>
       <c r="AW119" s="26"/>
@@ -34725,10 +34707,10 @@
         <v>208</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D120" s="97" t="str">
         <f t="shared" si="37"/>
@@ -34771,7 +34753,7 @@
       <c r="AM120" s="17"/>
       <c r="AN120" s="15"/>
       <c r="AO120" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AP120" s="17" t="s">
         <v>100</v>
@@ -34780,14 +34762,14 @@
         <v>51100</v>
       </c>
       <c r="AR120" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AS120" s="22"/>
       <c r="AT120" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AU120" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AV120" s="30"/>
       <c r="AW120" s="26"/>
@@ -34905,7 +34887,7 @@
         <v>55</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D121" s="97" t="str">
         <f t="shared" si="37"/>
@@ -34948,25 +34930,25 @@
       <c r="AM121" s="12"/>
       <c r="AN121" s="19"/>
       <c r="AO121" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="AP121" s="12" t="s">
         <v>460</v>
-      </c>
-      <c r="AP121" s="12" t="s">
-        <v>461</v>
       </c>
       <c r="AQ121" s="31">
         <v>8000</v>
       </c>
       <c r="AR121" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="AS121" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="AT121" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="AU121" s="23" t="s">
         <v>462</v>
-      </c>
-      <c r="AS121" s="22" t="s">
-        <v>796</v>
-      </c>
-      <c r="AT121" s="22" t="s">
-        <v>795</v>
-      </c>
-      <c r="AU121" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="AV121" s="32"/>
       <c r="AW121" s="33"/>
@@ -35081,10 +35063,10 @@
         <v>151</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C122" s="175" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D122" s="97" t="str">
         <f t="shared" si="37"/>
@@ -35127,25 +35109,25 @@
       <c r="AM122" s="17"/>
       <c r="AN122" s="15"/>
       <c r="AO122" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="AP122" s="17" t="s">
         <v>465</v>
-      </c>
-      <c r="AP122" s="17" t="s">
-        <v>466</v>
       </c>
       <c r="AQ122" s="21">
         <v>60200</v>
       </c>
       <c r="AR122" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="AS122" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="AT122" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="AU122" s="23" t="s">
         <v>467</v>
-      </c>
-      <c r="AS122" s="22" t="s">
-        <v>798</v>
-      </c>
-      <c r="AT122" s="22" t="s">
-        <v>797</v>
-      </c>
-      <c r="AU122" s="23" t="s">
-        <v>468</v>
       </c>
       <c r="AV122" s="26"/>
       <c r="AW122" s="26"/>
@@ -35263,7 +35245,7 @@
         <v>408</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D123" s="97" t="str">
         <f t="shared" si="37"/>
@@ -35306,25 +35288,25 @@
       <c r="AM123" s="17"/>
       <c r="AN123" s="15"/>
       <c r="AO123" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP123" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ123" s="21">
         <v>60000</v>
       </c>
       <c r="AR123" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="AS123" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT123" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="AU123" s="23" t="s">
         <v>471</v>
-      </c>
-      <c r="AS123" s="22" t="s">
-        <v>800</v>
-      </c>
-      <c r="AT123" s="22" t="s">
-        <v>799</v>
-      </c>
-      <c r="AU123" s="23" t="s">
-        <v>472</v>
       </c>
       <c r="AV123" s="15"/>
       <c r="AW123" s="26"/>
@@ -35439,10 +35421,10 @@
         <v>151</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D124" s="97" t="str">
         <f t="shared" si="37"/>
@@ -35485,23 +35467,23 @@
       <c r="AM124" s="17"/>
       <c r="AN124" s="15"/>
       <c r="AO124" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AP124" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ124" s="21">
         <v>60000</v>
       </c>
       <c r="AR124" s="28"/>
       <c r="AS124" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AT124" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AU124" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AV124" s="15"/>
       <c r="AW124" s="26"/>
@@ -35616,10 +35598,10 @@
         <v>151</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D125" s="97" t="str">
         <f t="shared" si="37"/>
@@ -35662,10 +35644,10 @@
       <c r="AM125" s="17"/>
       <c r="AN125" s="15"/>
       <c r="AO125" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="AP125" s="17" t="s">
         <v>477</v>
-      </c>
-      <c r="AP125" s="17" t="s">
-        <v>478</v>
       </c>
       <c r="AQ125" s="21">
         <v>8090</v>
@@ -35674,13 +35656,13 @@
         <v>203</v>
       </c>
       <c r="AS125" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AT125" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AU125" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AV125" s="15"/>
       <c r="AW125" s="26"/>
@@ -35798,7 +35780,7 @@
         <v>416</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D126" s="97" t="str">
         <f t="shared" si="37"/>
@@ -35841,25 +35823,25 @@
       <c r="AM126" s="17"/>
       <c r="AN126" s="15"/>
       <c r="AO126" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AP126" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AQ126" s="21">
         <v>21000</v>
       </c>
       <c r="AR126" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="AS126" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="AT126" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="AU126" s="23" t="s">
         <v>483</v>
-      </c>
-      <c r="AS126" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="AT126" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="AU126" s="23" t="s">
-        <v>484</v>
       </c>
       <c r="AV126" s="32"/>
       <c r="AW126" s="26"/>
@@ -35977,7 +35959,7 @@
         <v>416</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D127" s="97" t="str">
         <f t="shared" si="37"/>
@@ -36020,10 +36002,10 @@
       <c r="AM127" s="17"/>
       <c r="AN127" s="15"/>
       <c r="AO127" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AP127" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AQ127" s="21">
         <v>60200</v>
@@ -36032,13 +36014,13 @@
         <v>209</v>
       </c>
       <c r="AS127" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AT127" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AU127" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AV127" s="15"/>
       <c r="AW127" s="60"/>
@@ -36156,7 +36138,7 @@
         <v>381</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D128" s="97" t="str">
         <f t="shared" si="37"/>
@@ -36199,25 +36181,25 @@
       <c r="AM128" s="17"/>
       <c r="AN128" s="15"/>
       <c r="AO128" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AP128" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AQ128" s="21">
         <v>60200</v>
       </c>
       <c r="AR128" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="AS128" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="AT128" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="AU128" s="23" t="s">
         <v>489</v>
-      </c>
-      <c r="AS128" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="AT128" s="22" t="s">
-        <v>809</v>
-      </c>
-      <c r="AU128" s="23" t="s">
-        <v>490</v>
       </c>
       <c r="AV128" s="15"/>
       <c r="AW128" s="60"/>
@@ -36332,10 +36314,10 @@
         <v>208</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D129" s="97" t="str">
         <f t="shared" si="37"/>
@@ -36378,25 +36360,25 @@
       <c r="AM129" s="17"/>
       <c r="AN129" s="15"/>
       <c r="AO129" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AP129" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ129" s="21">
         <v>60000</v>
       </c>
       <c r="AR129" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="AS129" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="AT129" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="AU129" s="23" t="s">
         <v>492</v>
-      </c>
-      <c r="AS129" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="AT129" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="AU129" s="23" t="s">
-        <v>493</v>
       </c>
       <c r="AV129" s="15"/>
       <c r="AW129" s="26"/>
@@ -36511,7 +36493,7 @@
         <v>208</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>210</v>
@@ -36557,7 +36539,7 @@
       <c r="AM130" s="17"/>
       <c r="AN130" s="15"/>
       <c r="AO130" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AP130" s="17" t="s">
         <v>172</v>
@@ -36566,16 +36548,16 @@
         <v>67000</v>
       </c>
       <c r="AR130" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="AS130" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="AT130" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="AU130" s="23" t="s">
         <v>495</v>
-      </c>
-      <c r="AS130" s="22" t="s">
-        <v>813</v>
-      </c>
-      <c r="AT130" s="22" t="s">
-        <v>812</v>
-      </c>
-      <c r="AU130" s="23" t="s">
-        <v>496</v>
       </c>
       <c r="AV130" s="15"/>
       <c r="AW130" s="26"/>
@@ -36690,10 +36672,10 @@
         <v>208</v>
       </c>
       <c r="B131" s="79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C131" s="80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D131" s="97" t="str">
         <f t="shared" ref="D131:D136" si="74">IF(BF131&lt;&gt;0,";2023_A="&amp;BF131," ")&amp;IF(BG131&lt;&gt;0," ; 2023_i="&amp;BG131," ")&amp;IF(BH131&lt;&gt;0,";2022_A="&amp;BH131," ")&amp;IF(BI131&lt;&gt;0," ; 2022_i="&amp;BI131," ")&amp;IF(BJ131&lt;&gt;0,";2021_A="&amp;BJ131," ")&amp;IF(BK131&lt;&gt;0," ; 2021_i="&amp;BK131," ")&amp;IF(BL131&lt;&gt;0,";2020_A="&amp;BL131," ")&amp;IF(BM131&lt;&gt;0," ; 2020_i="&amp;BM131," ")&amp;IF(BN131&lt;&gt;0,";2019_A="&amp;BN131," ")&amp;IF(BO131&lt;&gt;0," ; 2019_i="&amp;BO131," ")&amp;IF(BP131&lt;&gt;0,";2018_A="&amp;BP131," ")&amp;IF(BQ131&lt;&gt;0," ; 2018_i="&amp;BQ131," ")&amp;IF(BR131&lt;&gt;0," ; 2017_A="&amp;BR131," ")&amp;IF(BS131&lt;&gt;0," ; 2017_i="&amp;BS131," ")&amp;IF(BT131&lt;&gt;0," ; 2016_A="&amp;BT131," ")&amp;IF(BU131&lt;&gt;0," ; 2016_i="&amp;BU131," ")&amp;IF(BV131&lt;&gt;0," ; 2015_A="&amp;BV131," ")&amp;IF(BW131&lt;&gt;0," ; 2015_i="&amp;BW131," ")&amp;IF(BX131&lt;&gt;0," ; 2014_A="&amp;BX131," ")&amp;IF(BY131&lt;&gt;0," ; 2014_i="&amp;BY131," ")</f>
@@ -36736,25 +36718,25 @@
       <c r="AM131" s="80"/>
       <c r="AN131" s="82"/>
       <c r="AO131" s="80" t="s">
+        <v>497</v>
+      </c>
+      <c r="AP131" s="80" t="s">
         <v>498</v>
-      </c>
-      <c r="AP131" s="80" t="s">
-        <v>499</v>
       </c>
       <c r="AQ131" s="84">
         <v>21121</v>
       </c>
       <c r="AR131" s="86" t="s">
+        <v>499</v>
+      </c>
+      <c r="AS131" s="87" t="s">
+        <v>814</v>
+      </c>
+      <c r="AT131" s="87" t="s">
+        <v>813</v>
+      </c>
+      <c r="AU131" s="88" t="s">
         <v>500</v>
-      </c>
-      <c r="AS131" s="87" t="s">
-        <v>815</v>
-      </c>
-      <c r="AT131" s="87" t="s">
-        <v>814</v>
-      </c>
-      <c r="AU131" s="88" t="s">
-        <v>501</v>
       </c>
       <c r="AV131" s="82"/>
       <c r="AW131" s="71"/>
@@ -36859,10 +36841,10 @@
         <v>208</v>
       </c>
       <c r="B132" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C132" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D132" s="97" t="str">
         <f t="shared" si="74"/>
@@ -36905,25 +36887,25 @@
       <c r="AM132" s="100"/>
       <c r="AN132" s="102"/>
       <c r="AO132" s="100" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP132" s="100" t="s">
         <v>503</v>
-      </c>
-      <c r="AP132" s="100" t="s">
-        <v>504</v>
       </c>
       <c r="AQ132" s="104">
         <v>21800</v>
       </c>
       <c r="AR132" s="105" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS132" s="106" t="s">
+        <v>816</v>
+      </c>
+      <c r="AT132" s="106" t="s">
+        <v>815</v>
+      </c>
+      <c r="AU132" s="107" t="s">
         <v>505</v>
-      </c>
-      <c r="AS132" s="106" t="s">
-        <v>817</v>
-      </c>
-      <c r="AT132" s="106" t="s">
-        <v>816</v>
-      </c>
-      <c r="AU132" s="107" t="s">
-        <v>506</v>
       </c>
       <c r="AV132" s="108"/>
       <c r="AW132" s="7"/>
@@ -37028,10 +37010,10 @@
         <v>208</v>
       </c>
       <c r="B133" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C133" s="100" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D133" s="97" t="str">
         <f t="shared" si="74"/>
@@ -37074,22 +37056,22 @@
       <c r="AM133" s="100"/>
       <c r="AN133" s="102"/>
       <c r="AO133" s="100" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AP133" s="100" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AQ133" s="104">
         <v>21000</v>
       </c>
       <c r="AR133" s="105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AS133" s="106" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AT133" s="106" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AU133" s="107"/>
       <c r="AV133" s="108"/>
@@ -37195,10 +37177,10 @@
         <v>208</v>
       </c>
       <c r="B134" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C134" s="100" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D134" s="97" t="str">
         <f t="shared" si="74"/>
@@ -37241,25 +37223,25 @@
       <c r="AM134" s="100"/>
       <c r="AN134" s="102"/>
       <c r="AO134" s="100" t="s">
+        <v>510</v>
+      </c>
+      <c r="AP134" s="100" t="s">
         <v>511</v>
-      </c>
-      <c r="AP134" s="100" t="s">
-        <v>512</v>
       </c>
       <c r="AQ134" s="104">
         <v>21300</v>
       </c>
       <c r="AR134" s="105" t="s">
+        <v>512</v>
+      </c>
+      <c r="AS134" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="AT134" s="106" t="s">
+        <v>819</v>
+      </c>
+      <c r="AU134" s="107" t="s">
         <v>513</v>
-      </c>
-      <c r="AS134" s="106" t="s">
-        <v>821</v>
-      </c>
-      <c r="AT134" s="106" t="s">
-        <v>820</v>
-      </c>
-      <c r="AU134" s="107" t="s">
-        <v>514</v>
       </c>
       <c r="AV134" s="108"/>
       <c r="AW134" s="7"/>
@@ -37364,10 +37346,10 @@
         <v>208</v>
       </c>
       <c r="B135" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C135" s="100" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D135" s="97" t="str">
         <f t="shared" si="74"/>
@@ -37410,25 +37392,25 @@
       <c r="AM135" s="100"/>
       <c r="AN135" s="102"/>
       <c r="AO135" s="100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AP135" s="100" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AQ135" s="104">
         <v>21800</v>
       </c>
       <c r="AR135" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="AS135" s="106" t="s">
+        <v>822</v>
+      </c>
+      <c r="AT135" s="106" t="s">
+        <v>821</v>
+      </c>
+      <c r="AU135" s="107" t="s">
         <v>517</v>
-      </c>
-      <c r="AS135" s="106" t="s">
-        <v>823</v>
-      </c>
-      <c r="AT135" s="106" t="s">
-        <v>822</v>
-      </c>
-      <c r="AU135" s="107" t="s">
-        <v>518</v>
       </c>
       <c r="AV135" s="108"/>
       <c r="AW135" s="7"/>
@@ -37540,13 +37522,13 @@
     </row>
     <row r="136" spans="1:95" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="112" t="s">
+        <v>567</v>
+      </c>
+      <c r="B136" s="110" t="s">
         <v>568</v>
       </c>
-      <c r="B136" s="110" t="s">
-        <v>569</v>
-      </c>
       <c r="C136" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D136" s="97" t="str">
         <f t="shared" si="74"/>
@@ -37586,25 +37568,25 @@
       <c r="AM136" s="8"/>
       <c r="AN136" s="2"/>
       <c r="AO136" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="AP136" s="96" t="s">
         <v>570</v>
-      </c>
-      <c r="AP136" s="96" t="s">
-        <v>571</v>
       </c>
       <c r="AQ136" s="114">
         <v>92390</v>
       </c>
       <c r="AR136" s="105" t="s">
+        <v>571</v>
+      </c>
+      <c r="AS136" s="106" t="s">
+        <v>824</v>
+      </c>
+      <c r="AT136" s="106" t="s">
+        <v>823</v>
+      </c>
+      <c r="AU136" s="107" t="s">
         <v>572</v>
-      </c>
-      <c r="AS136" s="106" t="s">
-        <v>825</v>
-      </c>
-      <c r="AT136" s="106" t="s">
-        <v>824</v>
-      </c>
-      <c r="AU136" s="107" t="s">
-        <v>573</v>
       </c>
       <c r="AV136" s="5"/>
       <c r="AW136" s="2"/>
@@ -37719,10 +37701,10 @@
         <v>194</v>
       </c>
       <c r="B137" s="99" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C137" s="100" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D137" s="97" t="str">
         <f t="shared" ref="D137:D139" si="75">IF(BF137&lt;&gt;0,";2023_A="&amp;BF137," ")&amp;IF(BG137&lt;&gt;0," ; 2023_i="&amp;BG137," ")&amp;IF(BH137&lt;&gt;0,";2022_A="&amp;BH137," ")&amp;IF(BI137&lt;&gt;0," ; 2022_i="&amp;BI137," ")&amp;IF(BJ137&lt;&gt;0,";2021_A="&amp;BJ137," ")&amp;IF(BK137&lt;&gt;0," ; 2021_i="&amp;BK137," ")&amp;IF(BL137&lt;&gt;0,";2020_A="&amp;BL137," ")&amp;IF(BM137&lt;&gt;0," ; 2020_i="&amp;BM137," ")&amp;IF(BN137&lt;&gt;0,";2019_A="&amp;BN137," ")&amp;IF(BO137&lt;&gt;0," ; 2019_i="&amp;BO137," ")&amp;IF(BP137&lt;&gt;0,";2018_A="&amp;BP137," ")&amp;IF(BQ137&lt;&gt;0," ; 2018_i="&amp;BQ137," ")&amp;IF(BR137&lt;&gt;0," ; 2017_A="&amp;BR137," ")&amp;IF(BS137&lt;&gt;0," ; 2017_i="&amp;BS137," ")&amp;IF(BT137&lt;&gt;0," ; 2016_A="&amp;BT137," ")&amp;IF(BU137&lt;&gt;0," ; 2016_i="&amp;BU137," ")&amp;IF(BV137&lt;&gt;0," ; 2015_A="&amp;BV137," ")&amp;IF(BW137&lt;&gt;0," ; 2015_i="&amp;BW137," ")&amp;IF(BX137&lt;&gt;0," ; 2014_A="&amp;BX137," ")&amp;IF(BY137&lt;&gt;0," ; 2014_i="&amp;BY137," ")</f>
@@ -37765,10 +37747,10 @@
       <c r="AM137" s="100"/>
       <c r="AN137" s="102"/>
       <c r="AO137" s="100" t="s">
+        <v>922</v>
+      </c>
+      <c r="AP137" s="100" t="s">
         <v>923</v>
-      </c>
-      <c r="AP137" s="100" t="s">
-        <v>924</v>
       </c>
       <c r="AQ137" s="104">
         <v>8400</v>
@@ -37777,13 +37759,13 @@
         <v>324718796</v>
       </c>
       <c r="AS137" s="107" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AT137" s="106" t="s">
+        <v>924</v>
+      </c>
+      <c r="AU137" s="107" t="s">
         <v>925</v>
-      </c>
-      <c r="AU137" s="107" t="s">
-        <v>926</v>
       </c>
       <c r="AV137" s="108"/>
       <c r="AW137" s="121"/>
@@ -37827,13 +37809,13 @@
     </row>
     <row r="138" spans="1:95" s="120" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="192" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B138" s="193" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C138" s="96" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D138" s="97" t="str">
         <f t="shared" si="75"/>
@@ -37864,10 +37846,10 @@
       <c r="AL138" s="96"/>
       <c r="AM138" s="96"/>
       <c r="AO138" s="96" t="s">
+        <v>930</v>
+      </c>
+      <c r="AP138" s="96" t="s">
         <v>931</v>
-      </c>
-      <c r="AP138" s="96" t="s">
-        <v>932</v>
       </c>
       <c r="AQ138" s="114">
         <v>2310</v>
@@ -37876,13 +37858,13 @@
         <v>323707900</v>
       </c>
       <c r="AS138" s="107" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AT138" s="106" t="s">
+        <v>932</v>
+      </c>
+      <c r="AU138" s="107" t="s">
         <v>933</v>
-      </c>
-      <c r="AU138" s="107" t="s">
-        <v>934</v>
       </c>
       <c r="AV138" s="163"/>
       <c r="AX138" s="194"/>
@@ -37934,10 +37916,10 @@
         <v>204</v>
       </c>
       <c r="B139" s="195" t="s">
+        <v>937</v>
+      </c>
+      <c r="C139" s="113" t="s">
         <v>938</v>
-      </c>
-      <c r="C139" s="113" t="s">
-        <v>939</v>
       </c>
       <c r="D139" s="97" t="str">
         <f t="shared" si="75"/>
@@ -37960,7 +37942,7 @@
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
       <c r="AO139" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AP139" s="8" t="s">
         <v>394</v>
@@ -37972,10 +37954,10 @@
         <v>143535100</v>
       </c>
       <c r="AS139" s="107" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AT139" s="106" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="BB139" s="7"/>
       <c r="BC139" s="7"/>
@@ -38018,7 +38000,7 @@
         <v>243</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D140" s="97" t="str">
         <f t="shared" ref="D140" si="76">IF(BF140&lt;&gt;0,";2023_A="&amp;BF140," ")&amp;IF(BG140&lt;&gt;0," ; 2023_i="&amp;BG140," ")&amp;IF(BH140&lt;&gt;0,";2022_A="&amp;BH140," ")&amp;IF(BI140&lt;&gt;0," ; 2022_i="&amp;BI140," ")&amp;IF(BJ140&lt;&gt;0,";2021_A="&amp;BJ140," ")&amp;IF(BK140&lt;&gt;0," ; 2021_i="&amp;BK140," ")&amp;IF(BL140&lt;&gt;0,";2020_A="&amp;BL140," ")&amp;IF(BM140&lt;&gt;0," ; 2020_i="&amp;BM140," ")&amp;IF(BN140&lt;&gt;0,";2019_A="&amp;BN140," ")&amp;IF(BO140&lt;&gt;0," ; 2019_i="&amp;BO140," ")&amp;IF(BP140&lt;&gt;0,";2018_A="&amp;BP140," ")&amp;IF(BQ140&lt;&gt;0," ; 2018_i="&amp;BQ140," ")&amp;IF(BR140&lt;&gt;0," ; 2017_A="&amp;BR140," ")&amp;IF(BS140&lt;&gt;0," ; 2017_i="&amp;BS140," ")&amp;IF(BT140&lt;&gt;0," ; 2016_A="&amp;BT140," ")&amp;IF(BU140&lt;&gt;0," ; 2016_i="&amp;BU140," ")&amp;IF(BV140&lt;&gt;0," ; 2015_A="&amp;BV140," ")&amp;IF(BW140&lt;&gt;0," ; 2015_i="&amp;BW140," ")&amp;IF(BX140&lt;&gt;0," ; 2014_A="&amp;BX140," ")&amp;IF(BY140&lt;&gt;0," ; 2014_i="&amp;BY140," ")</f>
@@ -38041,10 +38023,10 @@
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
       <c r="AO140" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="AP140" s="8" t="s">
         <v>944</v>
-      </c>
-      <c r="AP140" s="8" t="s">
-        <v>945</v>
       </c>
       <c r="AQ140" s="9">
         <v>2250</v>
@@ -38053,10 +38035,10 @@
         <v>323217100</v>
       </c>
       <c r="AT140" s="106" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AU140" s="107" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="BB140" s="7"/>
       <c r="BC140" s="7"/>
@@ -45095,11 +45077,9 @@
     <hyperlink ref="AS105" r:id="rId34" xr:uid="{DEDB5F5A-09BC-445B-9619-97EC89EEC4AB}"/>
     <hyperlink ref="AR6" r:id="rId35" display="https://www.google.com/search?client=firefox-b-d&amp;q=bongrain%20illoud&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=5547202087223993168&amp;lqi=Cg9ib25ncmFpbiBpbGxvdWRaESIPYm9uZ3JhaW4gaWxsb3VkkgELY2hlZXNlX3Nob3CqARAQASoMIghib25ncmFpbigE&amp;ved=2ahUKEwjXjfKQpanzAhXJ6OAKHSRvBmIQvS56BAgEEC8&amp;rlst=f" xr:uid="{2218C3DB-6111-4EC2-9206-3D33601912B3}"/>
     <hyperlink ref="AS73" r:id="rId36" xr:uid="{FCDF3949-4BEC-4DCC-81B3-1A46EA224A43}"/>
-    <hyperlink ref="AX10" r:id="rId37" xr:uid="{14723980-DD63-47F5-A6F8-B74D448B5D41}"/>
-    <hyperlink ref="AY10" r:id="rId38" xr:uid="{6A59F0DD-87BE-416E-AAE2-772D9AED55C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -45121,7 +45101,7 @@
         <v>156</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D1" s="72" t="str">
         <f>IF(AX1&lt;&gt;0,"2020_A="&amp;AX1," ")&amp;IF(AY1&lt;&gt;0," ; 2020_i="&amp;AY1," ")&amp;IF(AZ1&lt;&gt;0,"2019_A="&amp;AZ1," ")&amp;IF(BA1&lt;&gt;0," ; 2019_i="&amp;BA1," ")&amp;IF(BB1&lt;&gt;0,"2018_A="&amp;BB1," ")&amp;IF(BC1&lt;&gt;0," ; 2018_i="&amp;BC1," ")&amp;IF(BD1&lt;&gt;0," ; 2017_A="&amp;BD1," ")&amp;IF(BE1&lt;&gt;0," ; 2017_i="&amp;BE1," ")&amp;IF(BF1&lt;&gt;0," ; 2016_A="&amp;BF1," ")&amp;IF(BG1&lt;&gt;0," ; 2016_i="&amp;BG1," ")&amp;IF(BH1&lt;&gt;0," ; 2015_A="&amp;BH1," ")&amp;IF(BI1&lt;&gt;0," ; 2015_i="&amp;BI1," ")&amp;IF(BJ1&lt;&gt;0," ; 2014_A="&amp;BJ1," ")&amp;IF(BK1&lt;&gt;0," ; 2014_i="&amp;BK1," ")</f>
@@ -45139,10 +45119,10 @@
         <v>155</v>
       </c>
       <c r="N1" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>566</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>567</v>
       </c>
       <c r="P1" s="15"/>
       <c r="Q1" s="17"/>
@@ -45314,7 +45294,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="200" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="201"/>
       <c r="C1" s="201"/>
@@ -45331,14 +45311,14 @@
       <c r="F2" s="205"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K2" s="69"/>
       <c r="L2" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N2" s="196" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O2" s="197"/>
       <c r="P2" s="197"/>
@@ -45400,7 +45380,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="200" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B1" s="201"/>
       <c r="C1" s="201"/>
@@ -45419,14 +45399,14 @@
       <c r="G2" s="70"/>
       <c r="H2" s="67"/>
       <c r="I2" s="68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K2" s="69"/>
       <c r="L2" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N2" s="209" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O2" s="210"/>
       <c r="P2" s="210"/>
